--- a/count-distinct-excel-formulas.xlsx
+++ b/count-distinct-excel-formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2CCCF6-3B37-46BF-BACA-B0DF756C7D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A4F7B-AF6D-48EF-96F6-6C2AA10C6E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3A517C21-8492-456A-854D-E1E4446CF1DA}"/>
   </bookViews>
@@ -34,30 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>Title</t>
   </si>
@@ -408,9 +386,6 @@
   </si>
   <si>
     <t>Man of Steel (2013)</t>
-  </si>
-  <si>
-    <t>Get distinct:</t>
   </si>
   <si>
     <t>Get count of distinct:</t>
@@ -795,8 +770,8 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
@@ -879,9 +854,9 @@
       <c r="D5" s="2">
         <v>1347597973</v>
       </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5:F16">_xlfn.UNIQUE(movies[Distributor])</f>
-        <v>Walt Disney Studios Motion Pictures</v>
+      <c r="F5">
+        <f>COUNTA(_xlfn.UNIQUE(movies[Distributor]))</f>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -897,9 +872,6 @@
       <c r="D6" s="2">
         <v>2048359754</v>
       </c>
-      <c r="F6" t="str">
-        <v>Twentieth Century Fox</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
@@ -914,9 +886,6 @@
       <c r="D7" s="2">
         <v>1544455963</v>
       </c>
-      <c r="F7" t="str">
-        <v>Sony Pictures Entertainment (SPE)</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
@@ -931,9 +900,6 @@
       <c r="D8" s="2">
         <v>2201647264</v>
       </c>
-      <c r="F8" t="str">
-        <v>Paramount Pictures</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
@@ -948,9 +914,6 @@
       <c r="D9" s="2">
         <v>1670516444</v>
       </c>
-      <c r="F9" t="str">
-        <v>Universal Pictures</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
@@ -965,9 +928,6 @@
       <c r="D10" s="2">
         <v>1518815515</v>
       </c>
-      <c r="F10" t="str">
-        <v>Warner Bros.</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
@@ -982,9 +942,6 @@
       <c r="D11" s="2">
         <v>1332698830</v>
       </c>
-      <c r="F11" t="str">
-        <v>DreamWorks Distribution</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
@@ -999,9 +956,6 @@
       <c r="D12" s="2">
         <v>1243089244</v>
       </c>
-      <c r="F12" t="str">
-        <v>Lionsgate</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
@@ -1016,9 +970,6 @@
       <c r="D13" s="2">
         <v>1662899439</v>
       </c>
-      <c r="F13" t="str">
-        <v>DreamWorks</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
@@ -1033,9 +984,6 @@
       <c r="D14" s="2">
         <v>1005973645</v>
       </c>
-      <c r="F14" t="str">
-        <v>New Line Cinema</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
@@ -1050,9 +998,6 @@
       <c r="D15" s="2">
         <v>1056057720</v>
       </c>
-      <c r="F15" t="str">
-        <v>Newmarket Films</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
@@ -1067,11 +1012,8 @@
       <c r="D16" s="2">
         <v>1074149279</v>
       </c>
-      <c r="F16" t="str">
-        <v>Summit Entertainment</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1085,7 +1027,7 @@
         <v>1273576220</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1098,11 +1040,8 @@
       <c r="D18" s="2">
         <v>1028570942</v>
       </c>
-      <c r="F18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1055,7 @@
         <v>1450026933</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1129,12 +1068,8 @@
       <c r="D20" s="2">
         <v>1027082707</v>
       </c>
-      <c r="F20">
-        <f>COUNTA(_xlfn.ANCHORARRAY(F5))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1083,7 @@
         <v>775398007</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1162,7 +1097,7 @@
         <v>1402809540</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1176,7 +1111,7 @@
         <v>1081142612</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1190,7 +1125,7 @@
         <v>928760770</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1204,7 +1139,7 @@
         <v>792910554</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1153,7 @@
         <v>1073394593</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +1167,7 @@
         <v>1128462972</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1246,7 +1181,7 @@
         <v>865011746</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1260,7 +1195,7 @@
         <v>1066179747</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1209,7 @@
         <v>1063611805</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1288,7 +1223,7 @@
         <v>1310466296</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>43</v>
       </c>
